--- a/WebServices (Without SP)/1400/08_آبان/Havades Inform - 980603 - REST.xlsx
+++ b/WebServices (Without SP)/1400/08_آبان/Havades Inform - 980603 - REST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadvar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621B854F-28EB-48E5-96E4-6223E8045BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE07DEC-5F5D-412F-9CD2-9F5355CAEF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="240">
   <si>
     <t>int</t>
   </si>
@@ -766,6 +766,12 @@
   </si>
   <si>
     <t>ورودی‌ها:  ندارد</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>مدت زمان (واحد) برای عملیات (دقیقه)</t>
   </si>
 </sst>
 </file>
@@ -1400,34 +1406,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2045,30 +2051,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
@@ -2087,10 +2093,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2253,10 +2259,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="56"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2419,10 +2425,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="56"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2519,11 +2525,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="57"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="62"/>
     </row>
     <row r="49" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
@@ -2630,10 +2636,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2697,10 +2703,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="56"/>
+      <c r="B66" s="61"/>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,10 +2770,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="56"/>
+      <c r="B73" s="61"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2963,10 +2969,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="54" t="s">
+      <c r="A92" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="56"/>
+      <c r="B92" s="61"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3129,10 +3135,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="54" t="s">
+      <c r="A108" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B108" s="56"/>
+      <c r="B108" s="61"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3306,10 +3312,10 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B125" s="56"/>
+      <c r="B125" s="61"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3461,11 +3467,11 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="54" t="s">
+      <c r="A140" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B140" s="56"/>
-      <c r="C140" s="57"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="62"/>
     </row>
     <row r="141" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
@@ -3605,10 +3611,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="54" t="s">
+      <c r="A154" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B154" s="56"/>
+      <c r="B154" s="61"/>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3694,10 +3700,10 @@
       </c>
     </row>
     <row r="163" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="54" t="s">
+      <c r="A163" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B163" s="56"/>
+      <c r="B163" s="61"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3827,10 +3833,10 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="54" t="s">
+      <c r="A176" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B176" s="55"/>
+      <c r="B176" s="63"/>
       <c r="C176" s="26"/>
     </row>
     <row r="177" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3905,10 +3911,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="54" t="s">
+      <c r="A184" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B184" s="55"/>
+      <c r="B184" s="63"/>
       <c r="C184" s="26"/>
     </row>
     <row r="185" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3998,6 +4004,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:C2"/>
@@ -4005,17 +4022,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A140:C140"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4050,30 +4056,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -4092,10 +4098,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4247,10 +4253,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4332,11 +4338,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
     </row>
     <row r="31" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -4461,30 +4467,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
@@ -4503,10 +4509,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4592,10 +4598,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4731,10 +4737,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4745,30 +4751,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
@@ -4843,11 +4849,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
     </row>
     <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -4882,189 +4888,200 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+    <row r="20" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-    </row>
-    <row r="20" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+    </row>
+    <row r="21" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+    <row r="27" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-    </row>
-    <row r="27" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+    </row>
+    <row r="28" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
     </row>
+    <row r="37" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
